--- a/docs/boards/sprint_2.xlsx
+++ b/docs/boards/sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farin\OneDrive\Desktop\Uni\LM_PrimoAnno_1\PPS\PPS-24-Scalata\docs\boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2399F230-428C-415C-B83E-29F1CE7B5F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C725747-2DC3-4AC4-8600-28FDA26FC45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,16 +2595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619183</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>700825</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>403493</xdr:rowOff>
+      <xdr:rowOff>349065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3509256</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3590898</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1945821</xdr:rowOff>
+      <xdr:rowOff>1891393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2619,7 +2619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5109540" y="4091029"/>
+          <a:off x="9436611" y="4036601"/>
           <a:ext cx="2890073" cy="1542328"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -4044,16 +4044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2837148</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2918790</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1274350</xdr:rowOff>
+      <xdr:rowOff>1219922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3357848</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3439490</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1822990</xdr:rowOff>
+      <xdr:rowOff>1768562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4068,7 +4068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7327505" y="4961886"/>
+          <a:off x="11654576" y="4907458"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -5246,8 +5246,8 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/docs/boards/sprint_2.xlsx
+++ b/docs/boards/sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farin\OneDrive\Desktop\Uni\LM_PrimoAnno_1\PPS\PPS-24-Scalata\docs\boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C725747-2DC3-4AC4-8600-28FDA26FC45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735614F4-612A-4A4D-9C0F-D0CD93675929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2170,16 +2170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>621473</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2340687</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2082152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>3511546</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>649015</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>390480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2194,7 +2194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5111830" y="6028223"/>
+          <a:off x="17848116" y="8627188"/>
           <a:ext cx="2890073" cy="1165828"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -2386,16 +2386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>624733</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>583911</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>228636</xdr:rowOff>
+      <xdr:rowOff>2718743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3514806</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1501145</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3473984</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1133752</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2410,7 +2410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5115090" y="6773672"/>
+          <a:off x="17810554" y="9263779"/>
           <a:ext cx="2890073" cy="1272509"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -2595,16 +2595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>349065</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564753</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3590898</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1891393</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3454826</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1619250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2619,7 +2619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9436611" y="4036601"/>
+          <a:off x="17791396" y="6621958"/>
           <a:ext cx="2890073" cy="1542328"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -3739,16 +3739,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2638590</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>759314</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2584161</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>459957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3159290</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1307954</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3104861</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1008597</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3763,7 +3763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7128947" y="7304350"/>
+          <a:off x="19810804" y="9862493"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -4044,16 +4044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2918790</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1219922</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2660254</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>961386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3439490</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1768562</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3180954</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1510026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4068,7 +4068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11654576" y="4907458"/>
+          <a:off x="19886897" y="7506422"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -5246,8 +5246,8 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5303,7 +5303,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="27">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>14</v>

--- a/docs/boards/sprint_2.xlsx
+++ b/docs/boards/sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farin\OneDrive\Desktop\Uni\LM_PrimoAnno_1\PPS\PPS-24-Scalata\docs\boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735614F4-612A-4A4D-9C0F-D0CD93675929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A30B5-4683-45A7-85DF-29AC6E950262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2805,16 +2805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>563330</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1745464</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522508</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1446107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3453403</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>408214</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3412581</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2829,7 +2829,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5053687" y="8290500"/>
+          <a:off x="17749151" y="10848643"/>
           <a:ext cx="2890073" cy="1520250"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -2973,8 +2973,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Implement use cases for player actions (move, interact, inventory, etc.)</a:t>
+            <a:t>Display</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> world</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1400" kern="1200" baseline="0">
@@ -3016,16 +3037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>547233</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2844922</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>506411</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1974065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3437306</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1524000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3396484</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>653143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3040,7 +3061,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5037590" y="9389958"/>
+          <a:off x="17733054" y="11376601"/>
           <a:ext cx="2890073" cy="1536578"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -3225,16 +3246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>605326</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1684232</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537290</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>826982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3495399</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3427363</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>642941</xdr:rowOff>
+      <xdr:rowOff>2643191</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3249,7 +3270,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095683" y="11086768"/>
+          <a:off x="17763933" y="13087018"/>
           <a:ext cx="2890073" cy="1816209"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -4349,16 +4370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2751590</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>858279</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2751589</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3272290</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1406919</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3272289</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>576883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4373,7 +4394,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7241947" y="10260815"/>
+          <a:off x="19978232" y="12288279"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -4654,16 +4675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2850504</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2745589</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2782467</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1861125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3371204</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3303167</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>436729</xdr:rowOff>
+      <xdr:rowOff>2409765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4678,7 +4699,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7340861" y="12148125"/>
+          <a:off x="20009110" y="14121161"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -5246,7 +5267,7 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/docs/boards/sprint_2.xlsx
+++ b/docs/boards/sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farin\OneDrive\Desktop\Uni\LM_PrimoAnno_1\PPS\PPS-24-Scalata\docs\boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A30B5-4683-45A7-85DF-29AC6E950262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D811B-6111-4138-87E3-DE79C9E8B451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5267,8 +5267,8 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
